--- a/test.xlsx
+++ b/test.xlsx
@@ -379,6 +379,10 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="54.28515625" customWidth="1"/>
+    <col min="2" max="2" width="60" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
